--- a/prediction_results.xlsx
+++ b/prediction_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -484,12 +484,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -508,12 +508,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -556,24 +556,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -585,38 +585,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,12 +628,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -652,24 +652,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,24 +700,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -760,19 +760,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -813,43 +813,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -868,12 +868,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -928,24 +928,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -988,12 +988,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1029,43 +1029,43 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1120,31 +1120,31 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,12 +1156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1245,19 +1245,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1276,60 +1276,60 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1348,48 +1348,48 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1408,60 +1408,60 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1480,24 +1480,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1516,36 +1516,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1588,24 +1588,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1624,24 +1624,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1660,24 +1660,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1720,36 +1720,36 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1792,12 +1792,36 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>air</t>
         </is>
       </c>
     </row>

--- a/prediction_results.xlsx
+++ b/prediction_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -496,36 +496,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -568,19 +568,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -616,84 +616,84 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -789,55 +789,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -880,36 +880,36 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -928,36 +928,36 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1036,84 +1036,84 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1168,36 +1168,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1269,19 +1269,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1324,84 +1324,84 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1420,48 +1420,48 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1480,24 +1480,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1516,19 +1516,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,24 +1540,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1576,24 +1576,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1612,48 +1612,48 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1672,12 +1672,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1696,67 +1696,67 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,12 +1768,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1792,36 +1792,936 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>bangunan</t>
         </is>
       </c>
     </row>

--- a/prediction_results.xlsx
+++ b/prediction_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -496,36 +496,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -568,19 +568,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -616,84 +616,84 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -789,55 +789,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -880,36 +880,36 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -928,36 +928,36 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1036,84 +1036,84 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1168,36 +1168,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1269,19 +1269,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1324,84 +1324,84 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1420,48 +1420,48 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1480,24 +1480,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1509,26 +1509,26 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,24 +1540,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1576,24 +1576,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1612,48 +1612,48 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1672,12 +1672,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1696,67 +1696,67 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,12 +1768,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1792,48 +1792,48 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1845,86 +1845,86 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,48 +1936,48 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1996,24 +1996,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2056,24 +2056,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -2092,36 +2092,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2140,43 +2140,43 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,43 +2188,43 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,12 +2236,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -2272,12 +2272,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2296,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2320,24 +2320,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -2361,31 +2361,31 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2404,12 +2404,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2428,12 +2428,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2469,26 +2469,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,12 +2500,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -2518,210 +2518,6 @@
       <c r="B174" t="inlineStr">
         <is>
           <t>air</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>area_hijau</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>bangunan</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>bangunan</t>
         </is>
       </c>
     </row>
